--- a/www.eia.gov/electricity/monthly/xls/table_1_02_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_02_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
-  <si>
-    <t>Table 1.2.A. Net Generation by Energy Source:  Electric Utilities, 2006-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+  <si>
+    <t>Table 1.2.A. Net Generation by Energy Source:  Electric Utilities, 2006-November 2016</t>
   </si>
   <si>
     <t>(Thousand Megawatthours)</t>
@@ -141,7 +141,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Coal includes anthracite, bituminous, subbituminous, lignite, and waste coal; synthetic coal and refined coal; and beginning in 2011, coal-derived synthesis gas. Prior to 2011 coal-derived synthesis gas was included in Other Gases.
@@ -1095,7 +1095,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3075,267 +3075,308 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="10">
+        <v>64946</v>
+      </c>
+      <c r="C53" s="10">
+        <v>673</v>
+      </c>
+      <c r="D53" s="10">
+        <v>596</v>
+      </c>
+      <c r="E53" s="10">
+        <v>43773</v>
+      </c>
+      <c r="F53" s="10">
+        <v>22</v>
+      </c>
+      <c r="G53" s="10">
+        <v>33082</v>
+      </c>
+      <c r="H53" s="10">
+        <v>17741</v>
+      </c>
+      <c r="I53" s="10">
+        <v>145</v>
+      </c>
+      <c r="J53" s="10">
+        <v>3631</v>
+      </c>
+      <c r="K53" s="10">
+        <v>-522</v>
+      </c>
+      <c r="L53" s="10">
+        <v>24</v>
+      </c>
+      <c r="M53" s="10">
+        <v>164111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="10">
-        <v>992722</v>
-      </c>
-      <c r="C54" s="10">
-        <v>9386</v>
-      </c>
-      <c r="D54" s="10">
-        <v>7683</v>
-      </c>
-      <c r="E54" s="10">
-        <v>423823</v>
-      </c>
-      <c r="F54" s="10">
-        <v>88</v>
-      </c>
-      <c r="G54" s="10">
-        <v>346892</v>
-      </c>
-      <c r="H54" s="10">
-        <v>200402</v>
-      </c>
-      <c r="I54" s="10">
-        <v>1055</v>
-      </c>
-      <c r="J54" s="10">
-        <v>27057</v>
-      </c>
-      <c r="K54" s="10">
-        <v>-4294</v>
-      </c>
-      <c r="L54" s="10">
-        <v>511</v>
-      </c>
-      <c r="M54" s="10">
-        <v>2005325</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="10">
-        <v>865636</v>
+        <v>1079786</v>
       </c>
       <c r="C55" s="10">
-        <v>9018</v>
+        <v>10029</v>
       </c>
       <c r="D55" s="10">
-        <v>7184</v>
+        <v>8260</v>
       </c>
       <c r="E55" s="10">
-        <v>517881</v>
+        <v>461300</v>
       </c>
       <c r="F55" s="10">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="G55" s="10">
-        <v>349932</v>
+        <v>381444</v>
       </c>
       <c r="H55" s="10">
-        <v>190443</v>
+        <v>217771</v>
       </c>
       <c r="I55" s="10">
-        <v>1293</v>
+        <v>1146</v>
       </c>
       <c r="J55" s="10">
-        <v>28742</v>
+        <v>30529</v>
       </c>
       <c r="K55" s="10">
-        <v>-3677</v>
+        <v>-4735</v>
       </c>
       <c r="L55" s="10">
-        <v>461</v>
+        <v>566</v>
       </c>
       <c r="M55" s="10">
-        <v>1967110</v>
+        <v>2186194</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="10">
+        <v>929827</v>
+      </c>
+      <c r="C56" s="10">
+        <v>9736</v>
+      </c>
+      <c r="D56" s="10">
+        <v>7674</v>
+      </c>
+      <c r="E56" s="10">
+        <v>565471</v>
+      </c>
+      <c r="F56" s="10">
+        <v>197</v>
+      </c>
+      <c r="G56" s="10">
+        <v>380683</v>
+      </c>
+      <c r="H56" s="10">
+        <v>208344</v>
+      </c>
+      <c r="I56" s="10">
+        <v>1396</v>
+      </c>
+      <c r="J56" s="10">
+        <v>32415</v>
+      </c>
+      <c r="K56" s="10">
+        <v>-3895</v>
+      </c>
+      <c r="L56" s="10">
+        <v>509</v>
+      </c>
+      <c r="M56" s="10">
+        <v>2132358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>2016</v>
       </c>
-      <c r="B56" s="10">
-        <v>770910</v>
-      </c>
-      <c r="C56" s="10">
-        <v>7240</v>
-      </c>
-      <c r="D56" s="10">
-        <v>7618</v>
-      </c>
-      <c r="E56" s="10">
-        <v>564679</v>
-      </c>
-      <c r="F56" s="10">
-        <v>119</v>
-      </c>
-      <c r="G56" s="10">
-        <v>354046</v>
-      </c>
-      <c r="H56" s="10">
-        <v>207867</v>
-      </c>
-      <c r="I56" s="10">
-        <v>1888</v>
-      </c>
-      <c r="J56" s="10">
-        <v>32613</v>
-      </c>
-      <c r="K56" s="10">
-        <v>-4450</v>
-      </c>
-      <c r="L56" s="10">
-        <v>263</v>
-      </c>
-      <c r="M56" s="10">
-        <v>1942794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="10">
+        <v>835856</v>
+      </c>
+      <c r="C57" s="10">
+        <v>7913</v>
+      </c>
+      <c r="D57" s="10">
+        <v>8214</v>
+      </c>
+      <c r="E57" s="10">
+        <v>608453</v>
+      </c>
+      <c r="F57" s="10">
+        <v>142</v>
+      </c>
+      <c r="G57" s="10">
+        <v>387127</v>
+      </c>
+      <c r="H57" s="10">
+        <v>225608</v>
+      </c>
+      <c r="I57" s="10">
+        <v>2033</v>
+      </c>
+      <c r="J57" s="10">
+        <v>36244</v>
+      </c>
+      <c r="K57" s="10">
+        <v>-4972</v>
+      </c>
+      <c r="L57" s="10">
+        <v>288</v>
+      </c>
+      <c r="M57" s="10">
+        <v>2106905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="10">
-        <v>1045987</v>
-      </c>
-      <c r="C58" s="10">
-        <v>10328</v>
-      </c>
-      <c r="D58" s="10">
-        <v>8649</v>
-      </c>
-      <c r="E58" s="10">
-        <v>595472</v>
-      </c>
-      <c r="F58" s="10">
-        <v>220</v>
-      </c>
-      <c r="G58" s="10">
-        <v>422911</v>
-      </c>
-      <c r="H58" s="10">
-        <v>228226</v>
-      </c>
-      <c r="I58" s="10">
-        <v>1456</v>
-      </c>
-      <c r="J58" s="10">
-        <v>34963</v>
-      </c>
-      <c r="K58" s="10">
-        <v>-4526</v>
-      </c>
-      <c r="L58" s="10">
-        <v>573</v>
-      </c>
-      <c r="M58" s="10">
-        <v>2344259</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1023113</v>
+      </c>
+      <c r="C59" s="10">
+        <v>10403</v>
+      </c>
+      <c r="D59" s="10">
+        <v>8562</v>
+      </c>
+      <c r="E59" s="10">
+        <v>605586</v>
+      </c>
+      <c r="F59" s="10">
+        <v>212</v>
+      </c>
+      <c r="G59" s="10">
+        <v>419110</v>
+      </c>
+      <c r="H59" s="10">
+        <v>228759</v>
+      </c>
+      <c r="I59" s="10">
+        <v>1468</v>
+      </c>
+      <c r="J59" s="10">
+        <v>35163</v>
+      </c>
+      <c r="K59" s="10">
+        <v>-4304</v>
+      </c>
+      <c r="L59" s="10">
+        <v>565</v>
+      </c>
+      <c r="M59" s="10">
+        <v>2328637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>2016</v>
       </c>
-      <c r="B59" s="10">
-        <v>903659</v>
-      </c>
-      <c r="C59" s="10">
-        <v>8607</v>
-      </c>
-      <c r="D59" s="10">
-        <v>8712</v>
-      </c>
-      <c r="E59" s="10">
-        <v>664615</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="B60" s="10">
+        <v>904414</v>
+      </c>
+      <c r="C60" s="10">
+        <v>8562</v>
+      </c>
+      <c r="D60" s="10">
+        <v>8818</v>
+      </c>
+      <c r="E60" s="10">
+        <v>660798</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="10">
-        <v>420794</v>
-      </c>
-      <c r="H59" s="10">
-        <v>247064</v>
-      </c>
-      <c r="I59" s="10">
-        <v>2088</v>
-      </c>
-      <c r="J59" s="10">
-        <v>39863</v>
-      </c>
-      <c r="K59" s="10">
-        <v>-4878</v>
-      </c>
-      <c r="L59" s="10">
-        <v>360</v>
-      </c>
-      <c r="M59" s="10">
-        <v>2291006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="G60" s="10">
+        <v>423124</v>
+      </c>
+      <c r="H60" s="10">
+        <v>246904</v>
+      </c>
+      <c r="I60" s="10">
+        <v>2130</v>
+      </c>
+      <c r="J60" s="10">
+        <v>39821</v>
+      </c>
+      <c r="K60" s="10">
+        <v>-5182</v>
+      </c>
+      <c r="L60" s="10">
+        <v>336</v>
+      </c>
+      <c r="M60" s="10">
+        <v>2289870</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A57:M57"/>
-    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B3:M3"/>
